--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.00186300000001</v>
+        <v>51.08364133333333</v>
       </c>
       <c r="H2">
-        <v>141.005589</v>
+        <v>153.250924</v>
       </c>
       <c r="I2">
-        <v>0.1901796115079644</v>
+        <v>0.2324760785757066</v>
       </c>
       <c r="J2">
-        <v>0.1901796115079644</v>
+        <v>0.2324760785757066</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.78396633333334</v>
+        <v>17.367416</v>
       </c>
       <c r="N2">
-        <v>59.351899</v>
+        <v>52.102248</v>
       </c>
       <c r="O2">
-        <v>0.2044160189787881</v>
+        <v>0.199925246532591</v>
       </c>
       <c r="P2">
-        <v>0.2044160189787881</v>
+        <v>0.199925246532591</v>
       </c>
       <c r="Q2">
-        <v>929.8832751959459</v>
+        <v>887.1908498307946</v>
       </c>
       <c r="R2">
-        <v>8368.949476763511</v>
+        <v>7984.717648477152</v>
       </c>
       <c r="S2">
-        <v>0.03887575907539061</v>
+        <v>0.04647783732217815</v>
       </c>
       <c r="T2">
-        <v>0.03887575907539061</v>
+        <v>0.04647783732217814</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.00186300000001</v>
+        <v>51.08364133333333</v>
       </c>
       <c r="H3">
-        <v>141.005589</v>
+        <v>153.250924</v>
       </c>
       <c r="I3">
-        <v>0.1901796115079644</v>
+        <v>0.2324760785757066</v>
       </c>
       <c r="J3">
-        <v>0.1901796115079644</v>
+        <v>0.2324760785757066</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>21.164404</v>
       </c>
       <c r="N3">
-        <v>63.49321200000001</v>
+        <v>63.493212</v>
       </c>
       <c r="O3">
-        <v>0.2186792646553098</v>
+        <v>0.2436343257635653</v>
       </c>
       <c r="P3">
-        <v>0.2186792646553098</v>
+        <v>0.2436343257635653</v>
       </c>
       <c r="Q3">
-        <v>994.7664172846522</v>
+        <v>1081.154822969765</v>
       </c>
       <c r="R3">
-        <v>8952.897755561869</v>
+        <v>9730.393406727888</v>
       </c>
       <c r="S3">
-        <v>0.04158833759699415</v>
+        <v>0.05663915265994991</v>
       </c>
       <c r="T3">
-        <v>0.04158833759699415</v>
+        <v>0.0566391526599499</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.00186300000001</v>
+        <v>51.08364133333333</v>
       </c>
       <c r="H4">
-        <v>141.005589</v>
+        <v>153.250924</v>
       </c>
       <c r="I4">
-        <v>0.1901796115079644</v>
+        <v>0.2324760785757066</v>
       </c>
       <c r="J4">
-        <v>0.1901796115079644</v>
+        <v>0.2324760785757066</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.506957</v>
+        <v>19.49944633333333</v>
       </c>
       <c r="N4">
-        <v>73.520871</v>
+        <v>58.498339</v>
       </c>
       <c r="O4">
-        <v>0.2532158871896084</v>
+        <v>0.2244681428394815</v>
       </c>
       <c r="P4">
-        <v>0.2532158871896084</v>
+        <v>0.2244681428394814</v>
       </c>
       <c r="Q4">
-        <v>1151.872635460891</v>
+        <v>996.1027226905818</v>
       </c>
       <c r="R4">
-        <v>10366.85371914802</v>
+        <v>8964.924504215236</v>
       </c>
       <c r="S4">
-        <v>0.04815649905336427</v>
+        <v>0.05218347361249422</v>
       </c>
       <c r="T4">
-        <v>0.04815649905336427</v>
+        <v>0.05218347361249421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.00186300000001</v>
+        <v>51.08364133333333</v>
       </c>
       <c r="H5">
-        <v>141.005589</v>
+        <v>153.250924</v>
       </c>
       <c r="I5">
-        <v>0.1901796115079644</v>
+        <v>0.2324760785757066</v>
       </c>
       <c r="J5">
-        <v>0.1901796115079644</v>
+        <v>0.2324760785757066</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.903459</v>
+        <v>10.02612833333333</v>
       </c>
       <c r="N5">
-        <v>32.71037700000001</v>
+        <v>30.078385</v>
       </c>
       <c r="O5">
-        <v>0.1126589908376026</v>
+        <v>0.1154159132716728</v>
       </c>
       <c r="P5">
-        <v>0.1126589908376026</v>
+        <v>0.1154159132716728</v>
       </c>
       <c r="Q5">
-        <v>512.4828861441173</v>
+        <v>512.171143741971</v>
       </c>
       <c r="R5">
-        <v>4612.345975297055</v>
+        <v>4609.540293677739</v>
       </c>
       <c r="S5">
-        <v>0.02142544311037459</v>
+        <v>0.02683143892263235</v>
       </c>
       <c r="T5">
-        <v>0.02142544311037459</v>
+        <v>0.02683143892263234</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.00186300000001</v>
+        <v>51.08364133333333</v>
       </c>
       <c r="H6">
-        <v>141.005589</v>
+        <v>153.250924</v>
       </c>
       <c r="I6">
-        <v>0.1901796115079644</v>
+        <v>0.2324760785757066</v>
       </c>
       <c r="J6">
-        <v>0.1901796115079644</v>
+        <v>0.2324760785757066</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.42407066666667</v>
+        <v>18.81215433333334</v>
       </c>
       <c r="N6">
-        <v>61.272212</v>
+        <v>56.436463</v>
       </c>
       <c r="O6">
-        <v>0.2110298383386912</v>
+        <v>0.2165563715926893</v>
       </c>
       <c r="P6">
-        <v>0.2110298383386912</v>
+        <v>0.2165563715926893</v>
       </c>
       <c r="Q6">
-        <v>959.9693713769855</v>
+        <v>960.9933446713126</v>
       </c>
       <c r="R6">
-        <v>8639.724342392868</v>
+        <v>8648.940102041812</v>
       </c>
       <c r="S6">
-        <v>0.04013357267184083</v>
+        <v>0.05034417605845196</v>
       </c>
       <c r="T6">
-        <v>0.04013357267184083</v>
+        <v>0.05034417605845195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>135.727691</v>
       </c>
       <c r="I7">
-        <v>0.1830611093383896</v>
+        <v>0.2058939713656488</v>
       </c>
       <c r="J7">
-        <v>0.1830611093383896</v>
+        <v>0.2058939713656488</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.78396633333334</v>
+        <v>17.367416</v>
       </c>
       <c r="N7">
-        <v>59.351899</v>
+        <v>52.102248</v>
       </c>
       <c r="O7">
-        <v>0.2044160189787881</v>
+        <v>0.199925246532591</v>
       </c>
       <c r="P7">
-        <v>0.2044160189787881</v>
+        <v>0.199925246532591</v>
       </c>
       <c r="Q7">
-        <v>895.0773564150232</v>
+        <v>785.7464241054852</v>
       </c>
       <c r="R7">
-        <v>8055.696207735209</v>
+        <v>7071.717816949367</v>
       </c>
       <c r="S7">
-        <v>0.03742062320079426</v>
+        <v>0.04116340298485158</v>
       </c>
       <c r="T7">
-        <v>0.03742062320079426</v>
+        <v>0.04116340298485158</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>135.727691</v>
       </c>
       <c r="I8">
-        <v>0.1830611093383896</v>
+        <v>0.2058939713656488</v>
       </c>
       <c r="J8">
-        <v>0.1830611093383896</v>
+        <v>0.2058939713656488</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>21.164404</v>
       </c>
       <c r="N8">
-        <v>63.49321200000001</v>
+        <v>63.493212</v>
       </c>
       <c r="O8">
-        <v>0.2186792646553098</v>
+        <v>0.2436343257635653</v>
       </c>
       <c r="P8">
-        <v>0.2186792646553098</v>
+        <v>0.2436343257635653</v>
       </c>
       <c r="Q8">
         <v>957.5318954370546</v>
       </c>
       <c r="R8">
-        <v>8617.787058933493</v>
+        <v>8617.787058933491</v>
       </c>
       <c r="S8">
-        <v>0.04003166877710431</v>
+        <v>0.05016283889245267</v>
       </c>
       <c r="T8">
-        <v>0.04003166877710431</v>
+        <v>0.05016283889245267</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>135.727691</v>
       </c>
       <c r="I9">
-        <v>0.1830611093383896</v>
+        <v>0.2058939713656488</v>
       </c>
       <c r="J9">
-        <v>0.1830611093383896</v>
+        <v>0.2058939713656488</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.506957</v>
+        <v>19.49944633333333</v>
       </c>
       <c r="N9">
-        <v>73.520871</v>
+        <v>58.498339</v>
       </c>
       <c r="O9">
-        <v>0.2532158871896084</v>
+        <v>0.2244681428394815</v>
       </c>
       <c r="P9">
-        <v>0.2532158871896084</v>
+        <v>0.2244681428394814</v>
       </c>
       <c r="Q9">
-        <v>1108.757562348762</v>
+        <v>882.2049422005832</v>
       </c>
       <c r="R9">
-        <v>9978.81806113886</v>
+        <v>7939.844479805249</v>
       </c>
       <c r="S9">
-        <v>0.04635398121103423</v>
+        <v>0.04621663737429256</v>
       </c>
       <c r="T9">
-        <v>0.04635398121103425</v>
+        <v>0.04621663737429255</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>135.727691</v>
       </c>
       <c r="I10">
-        <v>0.1830611093383896</v>
+        <v>0.2058939713656488</v>
       </c>
       <c r="J10">
-        <v>0.1830611093383896</v>
+        <v>0.2058939713656488</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.903459</v>
+        <v>10.02612833333333</v>
       </c>
       <c r="N10">
-        <v>32.71037700000001</v>
+        <v>30.078385</v>
       </c>
       <c r="O10">
-        <v>0.1126589908376026</v>
+        <v>0.1154159132716728</v>
       </c>
       <c r="P10">
-        <v>0.1126589908376026</v>
+        <v>0.1154159132716728</v>
       </c>
       <c r="Q10">
-        <v>493.3004379943898</v>
+        <v>453.6077494510038</v>
       </c>
       <c r="R10">
-        <v>4439.703941949508</v>
+        <v>4082.469745059034</v>
       </c>
       <c r="S10">
-        <v>0.02062347983967501</v>
+        <v>0.02376344074229801</v>
       </c>
       <c r="T10">
-        <v>0.02062347983967501</v>
+        <v>0.02376344074229801</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>135.727691</v>
       </c>
       <c r="I11">
-        <v>0.1830611093383896</v>
+        <v>0.2058939713656488</v>
       </c>
       <c r="J11">
-        <v>0.1830611093383896</v>
+        <v>0.2058939713656488</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.42407066666667</v>
+        <v>18.81215433333334</v>
       </c>
       <c r="N11">
-        <v>61.272212</v>
+        <v>56.436463</v>
       </c>
       <c r="O11">
-        <v>0.2110298383386912</v>
+        <v>0.2165563715926893</v>
       </c>
       <c r="P11">
-        <v>0.2110298383386912</v>
+        <v>0.2165563715926893</v>
       </c>
       <c r="Q11">
-        <v>924.0373174691656</v>
+        <v>851.1100901329926</v>
       </c>
       <c r="R11">
-        <v>8316.335857222492</v>
+        <v>7659.990811196933</v>
       </c>
       <c r="S11">
-        <v>0.03863135630978183</v>
+        <v>0.04458765137175398</v>
       </c>
       <c r="T11">
-        <v>0.03863135630978184</v>
+        <v>0.04458765137175397</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>64.67966699999999</v>
+        <v>55.60882566666667</v>
       </c>
       <c r="H12">
-        <v>194.039001</v>
+        <v>166.826477</v>
       </c>
       <c r="I12">
-        <v>0.2617077953383359</v>
+        <v>0.253069698787332</v>
       </c>
       <c r="J12">
-        <v>0.2617077953383359</v>
+        <v>0.253069698787332</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.78396633333334</v>
+        <v>17.367416</v>
       </c>
       <c r="N12">
-        <v>59.351899</v>
+        <v>52.102248</v>
       </c>
       <c r="O12">
-        <v>0.2044160189787881</v>
+        <v>0.199925246532591</v>
       </c>
       <c r="P12">
-        <v>0.2044160189787881</v>
+        <v>0.199925246532591</v>
       </c>
       <c r="Q12">
-        <v>1279.620354379211</v>
+        <v>965.7816086244773</v>
       </c>
       <c r="R12">
-        <v>11516.5831894129</v>
+        <v>8692.034477620296</v>
       </c>
       <c r="S12">
-        <v>0.05349726565877807</v>
+        <v>0.0505950219199859</v>
       </c>
       <c r="T12">
-        <v>0.05349726565877808</v>
+        <v>0.0505950219199859</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>64.67966699999999</v>
+        <v>55.60882566666667</v>
       </c>
       <c r="H13">
-        <v>194.039001</v>
+        <v>166.826477</v>
       </c>
       <c r="I13">
-        <v>0.2617077953383359</v>
+        <v>0.253069698787332</v>
       </c>
       <c r="J13">
-        <v>0.2617077953383359</v>
+        <v>0.253069698787332</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>21.164404</v>
       </c>
       <c r="N13">
-        <v>63.49321200000001</v>
+        <v>63.493212</v>
       </c>
       <c r="O13">
-        <v>0.2186792646553098</v>
+        <v>0.2436343257635653</v>
       </c>
       <c r="P13">
-        <v>0.2186792646553098</v>
+        <v>0.2436343257635653</v>
       </c>
       <c r="Q13">
-        <v>1368.906602973468</v>
+        <v>1176.927652374903</v>
       </c>
       <c r="R13">
-        <v>12320.15942676121</v>
+        <v>10592.34887137412</v>
       </c>
       <c r="S13">
-        <v>0.0572300682391496</v>
+        <v>0.06165646543524019</v>
       </c>
       <c r="T13">
-        <v>0.05723006823914961</v>
+        <v>0.06165646543524019</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>64.67966699999999</v>
+        <v>55.60882566666667</v>
       </c>
       <c r="H14">
-        <v>194.039001</v>
+        <v>166.826477</v>
       </c>
       <c r="I14">
-        <v>0.2617077953383359</v>
+        <v>0.253069698787332</v>
       </c>
       <c r="J14">
-        <v>0.2617077953383359</v>
+        <v>0.253069698787332</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.506957</v>
+        <v>19.49944633333333</v>
       </c>
       <c r="N14">
-        <v>73.520871</v>
+        <v>58.498339</v>
       </c>
       <c r="O14">
-        <v>0.2532158871896084</v>
+        <v>0.2244681428394815</v>
       </c>
       <c r="P14">
-        <v>0.2532158871896084</v>
+        <v>0.2244681428394814</v>
       </c>
       <c r="Q14">
-        <v>1585.101817943319</v>
+        <v>1084.341311746856</v>
       </c>
       <c r="R14">
-        <v>14265.91636148987</v>
+        <v>9759.071805721704</v>
       </c>
       <c r="S14">
-        <v>0.06626857158103318</v>
+        <v>0.05680608529573938</v>
       </c>
       <c r="T14">
-        <v>0.06626857158103319</v>
+        <v>0.05680608529573938</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>64.67966699999999</v>
+        <v>55.60882566666667</v>
       </c>
       <c r="H15">
-        <v>194.039001</v>
+        <v>166.826477</v>
       </c>
       <c r="I15">
-        <v>0.2617077953383359</v>
+        <v>0.253069698787332</v>
       </c>
       <c r="J15">
-        <v>0.2617077953383359</v>
+        <v>0.253069698787332</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.903459</v>
+        <v>10.02612833333333</v>
       </c>
       <c r="N15">
-        <v>32.71037700000001</v>
+        <v>30.078385</v>
       </c>
       <c r="O15">
-        <v>0.1126589908376026</v>
+        <v>0.1154159132716728</v>
       </c>
       <c r="P15">
-        <v>0.1126589908376026</v>
+        <v>0.1154159132716728</v>
       </c>
       <c r="Q15">
-        <v>705.2320972681532</v>
+        <v>557.5412225999605</v>
       </c>
       <c r="R15">
-        <v>6347.088875413378</v>
+        <v>5017.871003399645</v>
       </c>
       <c r="S15">
-        <v>0.02948373611715076</v>
+        <v>0.02920827040692707</v>
       </c>
       <c r="T15">
-        <v>0.02948373611715076</v>
+        <v>0.02920827040692707</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>64.67966699999999</v>
+        <v>55.60882566666667</v>
       </c>
       <c r="H16">
-        <v>194.039001</v>
+        <v>166.826477</v>
       </c>
       <c r="I16">
-        <v>0.2617077953383359</v>
+        <v>0.253069698787332</v>
       </c>
       <c r="J16">
-        <v>0.2617077953383359</v>
+        <v>0.253069698787332</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.42407066666667</v>
+        <v>18.81215433333334</v>
       </c>
       <c r="N16">
-        <v>61.272212</v>
+        <v>56.436463</v>
       </c>
       <c r="O16">
-        <v>0.2110298383386912</v>
+        <v>0.2165563715926893</v>
       </c>
       <c r="P16">
-        <v>0.2110298383386912</v>
+        <v>0.2165563715926893</v>
       </c>
       <c r="Q16">
-        <v>1321.022089504468</v>
+        <v>1046.121810736761</v>
       </c>
       <c r="R16">
-        <v>11889.19880554021</v>
+        <v>9415.096296630853</v>
       </c>
       <c r="S16">
-        <v>0.0552281537422243</v>
+        <v>0.05480385572943943</v>
       </c>
       <c r="T16">
-        <v>0.05522815374222431</v>
+        <v>0.05480385572943942</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30.49525833333333</v>
+        <v>25.04144866666667</v>
       </c>
       <c r="H17">
-        <v>91.48577499999999</v>
+        <v>75.124346</v>
       </c>
       <c r="I17">
-        <v>0.1233903512009374</v>
+        <v>0.1139609009055278</v>
       </c>
       <c r="J17">
-        <v>0.1233903512009374</v>
+        <v>0.1139609009055278</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.78396633333334</v>
+        <v>17.367416</v>
       </c>
       <c r="N17">
-        <v>59.351899</v>
+        <v>52.102248</v>
       </c>
       <c r="O17">
-        <v>0.2044160189787881</v>
+        <v>0.199925246532591</v>
       </c>
       <c r="P17">
-        <v>0.2044160189787881</v>
+        <v>0.199925246532591</v>
       </c>
       <c r="Q17">
-        <v>603.3171641929695</v>
+        <v>434.9052562366453</v>
       </c>
       <c r="R17">
-        <v>5429.854477736724</v>
+        <v>3914.147306129808</v>
       </c>
       <c r="S17">
-        <v>0.02522296437289015</v>
+        <v>0.02278366120861382</v>
       </c>
       <c r="T17">
-        <v>0.02522296437289016</v>
+        <v>0.02278366120861382</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>30.49525833333333</v>
+        <v>25.04144866666667</v>
       </c>
       <c r="H18">
-        <v>91.48577499999999</v>
+        <v>75.124346</v>
       </c>
       <c r="I18">
-        <v>0.1233903512009374</v>
+        <v>0.1139609009055278</v>
       </c>
       <c r="J18">
-        <v>0.1233903512009374</v>
+        <v>0.1139609009055278</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>21.164404</v>
       </c>
       <c r="N18">
-        <v>63.49321200000001</v>
+        <v>63.493212</v>
       </c>
       <c r="O18">
-        <v>0.2186792646553098</v>
+        <v>0.2436343257635653</v>
       </c>
       <c r="P18">
-        <v>0.2186792646553098</v>
+        <v>0.2436343257635653</v>
       </c>
       <c r="Q18">
-        <v>645.4139674510333</v>
+        <v>529.9873363265947</v>
       </c>
       <c r="R18">
-        <v>5808.7257070593</v>
+        <v>4769.886026939352</v>
       </c>
       <c r="S18">
-        <v>0.02698291126618142</v>
+        <v>0.02776478725552674</v>
       </c>
       <c r="T18">
-        <v>0.02698291126618142</v>
+        <v>0.02776478725552674</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>30.49525833333333</v>
+        <v>25.04144866666667</v>
       </c>
       <c r="H19">
-        <v>91.48577499999999</v>
+        <v>75.124346</v>
       </c>
       <c r="I19">
-        <v>0.1233903512009374</v>
+        <v>0.1139609009055278</v>
       </c>
       <c r="J19">
-        <v>0.1233903512009374</v>
+        <v>0.1139609009055278</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.506957</v>
+        <v>19.49944633333333</v>
       </c>
       <c r="N19">
-        <v>73.520871</v>
+        <v>58.498339</v>
       </c>
       <c r="O19">
-        <v>0.2532158871896084</v>
+        <v>0.2244681428394815</v>
       </c>
       <c r="P19">
-        <v>0.2532158871896084</v>
+        <v>0.2244681428394814</v>
       </c>
       <c r="Q19">
-        <v>747.3459846788916</v>
+        <v>488.2943843845883</v>
       </c>
       <c r="R19">
-        <v>6726.113862110024</v>
+        <v>4394.649459461294</v>
       </c>
       <c r="S19">
-        <v>0.03124439724998273</v>
+        <v>0.025580591782578</v>
       </c>
       <c r="T19">
-        <v>0.03124439724998274</v>
+        <v>0.025580591782578</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.49525833333333</v>
+        <v>25.04144866666667</v>
       </c>
       <c r="H20">
-        <v>91.48577499999999</v>
+        <v>75.124346</v>
       </c>
       <c r="I20">
-        <v>0.1233903512009374</v>
+        <v>0.1139609009055278</v>
       </c>
       <c r="J20">
-        <v>0.1233903512009374</v>
+        <v>0.1139609009055278</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.903459</v>
+        <v>10.02612833333333</v>
       </c>
       <c r="N20">
-        <v>32.71037700000001</v>
+        <v>30.078385</v>
       </c>
       <c r="O20">
-        <v>0.1126589908376026</v>
+        <v>0.1154159132716728</v>
       </c>
       <c r="P20">
-        <v>0.1126589908376026</v>
+        <v>0.1154159132716728</v>
       </c>
       <c r="Q20">
-        <v>332.5037989319084</v>
+        <v>251.0687779845789</v>
       </c>
       <c r="R20">
-        <v>2992.534190387175</v>
+        <v>2259.61900186121</v>
       </c>
       <c r="S20">
-        <v>0.01390103244539498</v>
+        <v>0.01315290145527409</v>
       </c>
       <c r="T20">
-        <v>0.01390103244539498</v>
+        <v>0.01315290145527409</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.49525833333333</v>
+        <v>25.04144866666667</v>
       </c>
       <c r="H21">
-        <v>91.48577499999999</v>
+        <v>75.124346</v>
       </c>
       <c r="I21">
-        <v>0.1233903512009374</v>
+        <v>0.1139609009055278</v>
       </c>
       <c r="J21">
-        <v>0.1233903512009374</v>
+        <v>0.1139609009055278</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>20.42407066666667</v>
+        <v>18.81215433333334</v>
       </c>
       <c r="N21">
-        <v>61.272212</v>
+        <v>56.436463</v>
       </c>
       <c r="O21">
-        <v>0.2110298383386912</v>
+        <v>0.2165563715926893</v>
       </c>
       <c r="P21">
-        <v>0.2110298383386912</v>
+        <v>0.2165563715926893</v>
       </c>
       <c r="Q21">
-        <v>622.8373111982554</v>
+        <v>471.0835970475777</v>
       </c>
       <c r="R21">
-        <v>5605.535800784299</v>
+        <v>4239.752373428199</v>
       </c>
       <c r="S21">
-        <v>0.02603904586648815</v>
+        <v>0.02467895920353512</v>
       </c>
       <c r="T21">
-        <v>0.02603904586648816</v>
+        <v>0.02467895920353512</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>59.72524266666667</v>
+        <v>42.76071533333334</v>
       </c>
       <c r="H22">
-        <v>179.175728</v>
+        <v>128.282146</v>
       </c>
       <c r="I22">
-        <v>0.2416611326143725</v>
+        <v>0.1945993503657849</v>
       </c>
       <c r="J22">
-        <v>0.2416611326143724</v>
+        <v>0.1945993503657849</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>19.78396633333334</v>
+        <v>17.367416</v>
       </c>
       <c r="N22">
-        <v>59.351899</v>
+        <v>52.102248</v>
       </c>
       <c r="O22">
-        <v>0.2044160189787881</v>
+        <v>0.199925246532591</v>
       </c>
       <c r="P22">
-        <v>0.2044160189787881</v>
+        <v>0.199925246532591</v>
       </c>
       <c r="Q22">
-        <v>1181.602190167497</v>
+        <v>742.6431316515786</v>
       </c>
       <c r="R22">
-        <v>10634.41971150747</v>
+        <v>6683.788184864208</v>
       </c>
       <c r="S22">
-        <v>0.04939940667093499</v>
+        <v>0.0389053230969616</v>
       </c>
       <c r="T22">
-        <v>0.04939940667093499</v>
+        <v>0.0389053230969616</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>59.72524266666667</v>
+        <v>42.76071533333334</v>
       </c>
       <c r="H23">
-        <v>179.175728</v>
+        <v>128.282146</v>
       </c>
       <c r="I23">
-        <v>0.2416611326143725</v>
+        <v>0.1945993503657849</v>
       </c>
       <c r="J23">
-        <v>0.2416611326143724</v>
+        <v>0.1945993503657849</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,25 +1863,25 @@
         <v>21.164404</v>
       </c>
       <c r="N23">
-        <v>63.49321200000001</v>
+        <v>63.493212</v>
       </c>
       <c r="O23">
-        <v>0.2186792646553098</v>
+        <v>0.2436343257635653</v>
       </c>
       <c r="P23">
-        <v>0.2186792646553098</v>
+        <v>0.2436343257635653</v>
       </c>
       <c r="Q23">
-        <v>1264.049164795371</v>
+        <v>905.0050546436614</v>
       </c>
       <c r="R23">
-        <v>11376.44248315834</v>
+        <v>8145.045491792953</v>
       </c>
       <c r="S23">
-        <v>0.05284627877588027</v>
+        <v>0.04741108152039581</v>
       </c>
       <c r="T23">
-        <v>0.05284627877588027</v>
+        <v>0.04741108152039581</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>59.72524266666667</v>
+        <v>42.76071533333334</v>
       </c>
       <c r="H24">
-        <v>179.175728</v>
+        <v>128.282146</v>
       </c>
       <c r="I24">
-        <v>0.2416611326143725</v>
+        <v>0.1945993503657849</v>
       </c>
       <c r="J24">
-        <v>0.2416611326143724</v>
+        <v>0.1945993503657849</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.506957</v>
+        <v>19.49944633333333</v>
       </c>
       <c r="N24">
-        <v>73.520871</v>
+        <v>58.498339</v>
       </c>
       <c r="O24">
-        <v>0.2532158871896084</v>
+        <v>0.2244681428394815</v>
       </c>
       <c r="P24">
-        <v>0.2532158871896084</v>
+        <v>0.2244681428394814</v>
       </c>
       <c r="Q24">
-        <v>1463.683953846565</v>
+        <v>833.8102738172772</v>
       </c>
       <c r="R24">
-        <v>13173.15558461909</v>
+        <v>7504.292464355495</v>
       </c>
       <c r="S24">
-        <v>0.06119243809419393</v>
+        <v>0.0436813547743773</v>
       </c>
       <c r="T24">
-        <v>0.06119243809419393</v>
+        <v>0.04368135477437729</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>59.72524266666667</v>
+        <v>42.76071533333334</v>
       </c>
       <c r="H25">
-        <v>179.175728</v>
+        <v>128.282146</v>
       </c>
       <c r="I25">
-        <v>0.2416611326143725</v>
+        <v>0.1945993503657849</v>
       </c>
       <c r="J25">
-        <v>0.2416611326143724</v>
+        <v>0.1945993503657849</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.903459</v>
+        <v>10.02612833333333</v>
       </c>
       <c r="N25">
-        <v>32.71037700000001</v>
+        <v>30.078385</v>
       </c>
       <c r="O25">
-        <v>0.1126589908376026</v>
+        <v>0.1154159132716728</v>
       </c>
       <c r="P25">
-        <v>0.1126589908376026</v>
+        <v>0.1154159132716728</v>
       </c>
       <c r="Q25">
-        <v>651.2117346810509</v>
+        <v>428.7244195571345</v>
       </c>
       <c r="R25">
-        <v>5860.905612129457</v>
+        <v>3858.51977601421</v>
       </c>
       <c r="S25">
-        <v>0.02722529932500726</v>
+        <v>0.0224598617445413</v>
       </c>
       <c r="T25">
-        <v>0.02722529932500725</v>
+        <v>0.0224598617445413</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>59.72524266666667</v>
+        <v>42.76071533333334</v>
       </c>
       <c r="H26">
-        <v>179.175728</v>
+        <v>128.282146</v>
       </c>
       <c r="I26">
-        <v>0.2416611326143725</v>
+        <v>0.1945993503657849</v>
       </c>
       <c r="J26">
-        <v>0.2416611326143724</v>
+        <v>0.1945993503657849</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>20.42407066666667</v>
+        <v>18.81215433333334</v>
       </c>
       <c r="N26">
-        <v>61.272212</v>
+        <v>56.436463</v>
       </c>
       <c r="O26">
-        <v>0.2110298383386912</v>
+        <v>0.2165563715926893</v>
       </c>
       <c r="P26">
-        <v>0.2110298383386912</v>
+        <v>0.2165563715926893</v>
       </c>
       <c r="Q26">
-        <v>1219.832576807815</v>
+        <v>804.4211762543999</v>
       </c>
       <c r="R26">
-        <v>10978.49319127033</v>
+        <v>7239.790586289599</v>
       </c>
       <c r="S26">
-        <v>0.05099770974835603</v>
+        <v>0.04214172922950885</v>
       </c>
       <c r="T26">
-        <v>0.05099770974835603</v>
+        <v>0.04214172922950885</v>
       </c>
     </row>
   </sheetData>
